--- a/data/nzd0131/nzd0131.xlsx
+++ b/data/nzd0131/nzd0131.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K531"/>
+  <dimension ref="A1:K537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18568,6 +18568,230 @@
         <v>401.2871428571429</v>
       </c>
       <c r="K531" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr"/>
+      <c r="C532" t="inlineStr"/>
+      <c r="D532" t="inlineStr"/>
+      <c r="E532" t="n">
+        <v>375.2</v>
+      </c>
+      <c r="F532" t="n">
+        <v>377.09</v>
+      </c>
+      <c r="G532" t="n">
+        <v>378.58</v>
+      </c>
+      <c r="H532" t="n">
+        <v>384.2233333333333</v>
+      </c>
+      <c r="I532" t="n">
+        <v>391.68</v>
+      </c>
+      <c r="J532" t="n">
+        <v>388.6285714285714</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>413.4728571428572</v>
+      </c>
+      <c r="C533" t="n">
+        <v>390.1</v>
+      </c>
+      <c r="D533" t="inlineStr"/>
+      <c r="E533" t="n">
+        <v>376.18</v>
+      </c>
+      <c r="F533" t="n">
+        <v>378.48</v>
+      </c>
+      <c r="G533" t="n">
+        <v>374.96</v>
+      </c>
+      <c r="H533" t="n">
+        <v>385.1733333333333</v>
+      </c>
+      <c r="I533" t="n">
+        <v>397.77</v>
+      </c>
+      <c r="J533" t="n">
+        <v>395.5828571428572</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>416.31</v>
+      </c>
+      <c r="C534" t="n">
+        <v>426.23</v>
+      </c>
+      <c r="D534" t="n">
+        <v>422.06</v>
+      </c>
+      <c r="E534" t="n">
+        <v>402.14</v>
+      </c>
+      <c r="F534" t="n">
+        <v>421.49</v>
+      </c>
+      <c r="G534" t="n">
+        <v>416.48</v>
+      </c>
+      <c r="H534" t="n">
+        <v>417.52</v>
+      </c>
+      <c r="I534" t="n">
+        <v>408.51</v>
+      </c>
+      <c r="J534" t="n">
+        <v>413.63</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>417.15</v>
+      </c>
+      <c r="C535" t="n">
+        <v>416.75</v>
+      </c>
+      <c r="D535" t="n">
+        <v>411.48</v>
+      </c>
+      <c r="E535" t="n">
+        <v>386.95</v>
+      </c>
+      <c r="F535" t="n">
+        <v>410.01</v>
+      </c>
+      <c r="G535" t="n">
+        <v>412.28</v>
+      </c>
+      <c r="H535" t="n">
+        <v>400.58</v>
+      </c>
+      <c r="I535" t="n">
+        <v>403.65</v>
+      </c>
+      <c r="J535" t="n">
+        <v>408.4</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>543.5514285714286</v>
+      </c>
+      <c r="C536" t="n">
+        <v>404.51</v>
+      </c>
+      <c r="D536" t="n">
+        <v>377.84</v>
+      </c>
+      <c r="E536" t="n">
+        <v>392.16</v>
+      </c>
+      <c r="F536" t="n">
+        <v>387.81</v>
+      </c>
+      <c r="G536" t="n">
+        <v>383.55</v>
+      </c>
+      <c r="H536" t="n">
+        <v>386.8066666666667</v>
+      </c>
+      <c r="I536" t="n">
+        <v>399.29</v>
+      </c>
+      <c r="J536" t="n">
+        <v>403.6214285714286</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:11:57+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>548.9228571428571</v>
+      </c>
+      <c r="C537" t="inlineStr"/>
+      <c r="D537" t="n">
+        <v>382.23</v>
+      </c>
+      <c r="E537" t="n">
+        <v>403.49</v>
+      </c>
+      <c r="F537" t="n">
+        <v>398.15</v>
+      </c>
+      <c r="G537" t="n">
+        <v>396.28</v>
+      </c>
+      <c r="H537" t="n">
+        <v>405.4733333333333</v>
+      </c>
+      <c r="I537" t="n">
+        <v>414.66</v>
+      </c>
+      <c r="J537" t="n">
+        <v>413.9328571428572</v>
+      </c>
+      <c r="K537" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -18584,7 +18808,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B543"/>
+  <dimension ref="A1:B549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24022,6 +24246,66 @@
       </c>
       <c r="B543" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>-0.65</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>-0.38</v>
       </c>
     </row>
   </sheetData>
@@ -24190,28 +24474,28 @@
         <v>0.0509</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.8815224976206157</v>
+        <v>-0.6752470025853177</v>
       </c>
       <c r="J2" t="n">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="K2" t="n">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1548644049050579</v>
+        <v>0.06498634638389977</v>
       </c>
       <c r="M2" t="n">
-        <v>12.53455338953937</v>
+        <v>13.5031638654835</v>
       </c>
       <c r="N2" t="n">
-        <v>243.9543504217703</v>
+        <v>383.4893312507447</v>
       </c>
       <c r="O2" t="n">
-        <v>15.61903807607147</v>
+        <v>19.58288362960738</v>
       </c>
       <c r="P2" t="n">
-        <v>424.6198503020105</v>
+        <v>422.6786710053732</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -24267,28 +24551,28 @@
         <v>0.0282</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3976082424662129</v>
+        <v>-0.3785238418757732</v>
       </c>
       <c r="J3" t="n">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="K3" t="n">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0226567314020929</v>
+        <v>0.02090267863328388</v>
       </c>
       <c r="M3" t="n">
-        <v>15.34406192977636</v>
+        <v>15.31730359971705</v>
       </c>
       <c r="N3" t="n">
-        <v>396.0804810315597</v>
+        <v>394.2443927871722</v>
       </c>
       <c r="O3" t="n">
-        <v>19.90177080140256</v>
+        <v>19.85558845230159</v>
       </c>
       <c r="P3" t="n">
-        <v>411.0685683930714</v>
+        <v>410.8902496264052</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -24344,28 +24628,28 @@
         <v>0.0209</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3233091367044647</v>
+        <v>-0.317851274189668</v>
       </c>
       <c r="J4" t="n">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="K4" t="n">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01449725101555988</v>
+        <v>0.01416543065550879</v>
       </c>
       <c r="M4" t="n">
-        <v>15.48492486941115</v>
+        <v>15.5171069426898</v>
       </c>
       <c r="N4" t="n">
-        <v>379.4768952252196</v>
+        <v>379.2706552951651</v>
       </c>
       <c r="O4" t="n">
-        <v>19.48016671451298</v>
+        <v>19.47487240767357</v>
       </c>
       <c r="P4" t="n">
-        <v>403.8765482845931</v>
+        <v>403.822752411602</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -24421,28 +24705,28 @@
         <v>0.0457</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3371327054728518</v>
+        <v>-0.351401332162069</v>
       </c>
       <c r="J5" t="n">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="K5" t="n">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02128621835993738</v>
+        <v>0.02353370235381758</v>
       </c>
       <c r="M5" t="n">
-        <v>13.35854295702861</v>
+        <v>13.30452380884286</v>
       </c>
       <c r="N5" t="n">
-        <v>298.4412717775509</v>
+        <v>296.1640842037198</v>
       </c>
       <c r="O5" t="n">
-        <v>17.27545286750975</v>
+        <v>17.20941847372304</v>
       </c>
       <c r="P5" t="n">
-        <v>403.2452387383747</v>
+        <v>403.3816306353543</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -24498,28 +24782,28 @@
         <v>0.0259</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5108505915126239</v>
+        <v>-0.5309387698186194</v>
       </c>
       <c r="J6" t="n">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="K6" t="n">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07096351791424105</v>
+        <v>0.07639304756027387</v>
       </c>
       <c r="M6" t="n">
-        <v>10.48627076085637</v>
+        <v>10.57727606937755</v>
       </c>
       <c r="N6" t="n">
-        <v>186.8498059980055</v>
+        <v>188.7515719510023</v>
       </c>
       <c r="O6" t="n">
-        <v>13.66930159144956</v>
+        <v>13.73868887306945</v>
       </c>
       <c r="P6" t="n">
-        <v>416.4607464548366</v>
+        <v>416.656695813736</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -24575,28 +24859,28 @@
         <v>0.0256</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4608499014803251</v>
+        <v>-0.4682231443288284</v>
       </c>
       <c r="J7" t="n">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="K7" t="n">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06859365756907021</v>
+        <v>0.07092036222680587</v>
       </c>
       <c r="M7" t="n">
-        <v>9.786653317159614</v>
+        <v>9.856505634786245</v>
       </c>
       <c r="N7" t="n">
-        <v>155.6551060830129</v>
+        <v>157.1769148230203</v>
       </c>
       <c r="O7" t="n">
-        <v>12.4761815505792</v>
+        <v>12.53702176846719</v>
       </c>
       <c r="P7" t="n">
-        <v>408.2783247027683</v>
+        <v>408.3497319527415</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -24652,28 +24936,28 @@
         <v>0.0308</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3171605326011995</v>
+        <v>-0.3097807184433121</v>
       </c>
       <c r="J8" t="n">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="K8" t="n">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04077068307823983</v>
+        <v>0.03937916257800433</v>
       </c>
       <c r="M8" t="n">
-        <v>8.604661168822929</v>
+        <v>8.636573682930882</v>
       </c>
       <c r="N8" t="n">
-        <v>125.8289681674149</v>
+        <v>126.2870185828478</v>
       </c>
       <c r="O8" t="n">
-        <v>11.21735120995215</v>
+        <v>11.23774971170153</v>
       </c>
       <c r="P8" t="n">
-        <v>401.9016496820691</v>
+        <v>401.8290615693301</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -24729,28 +25013,28 @@
         <v>0.0416</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1321675500788496</v>
+        <v>-0.1199439292184701</v>
       </c>
       <c r="J9" t="n">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="K9" t="n">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="L9" t="n">
-        <v>0.007655361062789523</v>
+        <v>0.006433992102554131</v>
       </c>
       <c r="M9" t="n">
-        <v>8.869769797306397</v>
+        <v>8.841726765220438</v>
       </c>
       <c r="N9" t="n">
-        <v>123.4501620789516</v>
+        <v>122.796577761571</v>
       </c>
       <c r="O9" t="n">
-        <v>11.11081284510506</v>
+        <v>11.08136172866724</v>
       </c>
       <c r="P9" t="n">
-        <v>401.3053122622131</v>
+        <v>401.186156612047</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -24806,28 +25090,28 @@
         <v>0.0356</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07472625532071668</v>
+        <v>0.0729744968552765</v>
       </c>
       <c r="J10" t="n">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="K10" t="n">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002696112974144738</v>
+        <v>0.002614679836613676</v>
       </c>
       <c r="M10" t="n">
-        <v>8.223804004660504</v>
+        <v>8.22029060190102</v>
       </c>
       <c r="N10" t="n">
-        <v>112.5085949897104</v>
+        <v>112.1467916971664</v>
       </c>
       <c r="O10" t="n">
-        <v>10.6070068817603</v>
+        <v>10.58993822914782</v>
       </c>
       <c r="P10" t="n">
-        <v>402.7823880526329</v>
+        <v>402.7988455811938</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -24864,7 +25148,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K531"/>
+  <dimension ref="A1:K537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49959,6 +50243,328 @@
         </is>
       </c>
     </row>
+    <row r="532">
+      <c r="A532" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr"/>
+      <c r="C532" t="inlineStr"/>
+      <c r="D532" t="inlineStr"/>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>-36.53032119344245,174.71411925361286</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>-36.531016416856005,174.71392506218476</t>
+        </is>
+      </c>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>-36.531729691224236,174.71382180311127</t>
+        </is>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>-36.53245347120383,174.71371485400934</t>
+        </is>
+      </c>
+      <c r="I532" t="inlineStr">
+        <is>
+          <t>-36.533152753728594,174.71361556686122</t>
+        </is>
+      </c>
+      <c r="J532" t="inlineStr">
+        <is>
+          <t>-36.53384308764647,174.713542150409</t>
+        </is>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>-36.528178317248084,174.71487821791393</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>-36.528887018079374,174.71455786846712</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr"/>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>-36.530323194311116,174.7141299131435</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>-36.53101862297919,174.71394034242138</t>
+        </is>
+      </c>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>-36.53172483311296,174.71378182707213</t>
+        </is>
+      </c>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>-36.532455050401175,174.7137252813116</t>
+        </is>
+      </c>
+      <c r="I533" t="inlineStr">
+        <is>
+          <t>-36.53315904231534,174.7136831309673</t>
+        </is>
+      </c>
+      <c r="J533" t="inlineStr">
+        <is>
+          <t>-36.533845233694265,174.71361976973202</t>
+        </is>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>-36.52817971948174,174.71490985287852</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>-36.52890487533233,174.71496073214914</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>-36.52966991757209,174.71484954190097</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>-36.530376196561434,174.71441228212097</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>-36.531086884846886,174.7144131507096</t>
+        </is>
+      </c>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>-36.531780552957315,174.71424033704932</t>
+        </is>
+      </c>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>-36.532508820134325,174.71408032203905</t>
+        </is>
+      </c>
+      <c r="I534" t="inlineStr">
+        <is>
+          <t>-36.53317013243835,174.7138022834532</t>
+        </is>
+      </c>
+      <c r="J534" t="inlineStr">
+        <is>
+          <t>-36.533850802690004,174.71382120049594</t>
+        </is>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>-36.52818013464295,174.71491921912198</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>-36.52890018997444,174.71485502641534</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>-36.529656617198604,174.71473254681945</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>-36.53034518338572,174.71424705924338</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>-36.53106866493861,174.7142869511667</t>
+        </is>
+      </c>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>-36.53177491663786,174.71419395595552</t>
+        </is>
+      </c>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>-36.53248066097442,174.71389438659776</t>
+        </is>
+      </c>
+      <c r="I535" t="inlineStr">
+        <is>
+          <t>-36.53316511401766,174.71374836528554</t>
+        </is>
+      </c>
+      <c r="J535" t="inlineStr">
+        <is>
+          <t>-36.533849188849274,174.713762826551</t>
+        </is>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>-36.52824259880954,174.71632863248857</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>-36.52889414038587,174.7147185456078</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>-36.52961432677204,174.7143605513521</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>-36.53035582058412,174.7143037288274</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>-36.53103343093453,174.71404290690776</t>
+        </is>
+      </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>-36.53173636104002,174.71387668734909</t>
+        </is>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>-36.53245776551024,174.713743208955</t>
+        </is>
+      </c>
+      <c r="I536" t="inlineStr">
+        <is>
+          <t>-36.533160611874486,174.7136999942596</t>
+        </is>
+      </c>
+      <c r="J536" t="inlineStr">
+        <is>
+          <t>-36.53384771428251,174.71370949116675</t>
+        </is>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:11:57+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>-36.52824525285378,174.71638852554344</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr"/>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>-36.52961984571405,174.71440909651903</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>-36.5303789528232,174.7144269661878</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>-36.531049841790335,174.71415657434378</t>
+        </is>
+      </c>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>-36.53175344477773,174.71401726612947</t>
+        </is>
+      </c>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>-36.53248879513421,174.71394809638983</t>
+        </is>
+      </c>
+      <c r="I537" t="inlineStr">
+        <is>
+          <t>-36.53317648287372,174.71387051324183</t>
+        </is>
+      </c>
+      <c r="J537" t="inlineStr">
+        <is>
+          <t>-36.53385089614288,174.71382458079543</t>
+        </is>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0131/nzd0131.xlsx
+++ b/data/nzd0131/nzd0131.xlsx
@@ -24319,7 +24319,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24410,35 +24410,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -24497,27 +24502,28 @@
       <c r="P2" t="n">
         <v>422.6786710053732</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.7102678844082 -36.52797387172354, 174.72054548935918 -36.5284293865141)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.7102678844082</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.52797387172354</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.7205454893592</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.5284293865141</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.7154066868837</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.52820162911882</v>
       </c>
     </row>
@@ -24574,27 +24580,28 @@
       <c r="P3" t="n">
         <v>410.8902496264052</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.7102081086602 -36.52869412412259, 174.72048577572545 -36.52914963882)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.7102081086602</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.52869412412259</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.7204857757255</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.52914963882</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.7153469421928</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.52892188147129</v>
       </c>
     </row>
@@ -24651,27 +24658,28 @@
       <c r="P4" t="n">
         <v>403.822752411602</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.71018237249172 -36.529139245836106, 174.720374709976 -36.53029789968069)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.7101823724917</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.52913924583611</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.720374709976</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.53029789968069</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.7152785412339</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.5297185727584</v>
       </c>
     </row>
@@ -24728,27 +24736,28 @@
       <c r="P5" t="n">
         <v>403.3816306353543</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.71003821387956 -36.52955507542649, 174.72006316250176 -36.53143674162229)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.7100382138796</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.52955507542649</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.7200631625018</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.53143674162229</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.7150506881907</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.53049590852439</v>
       </c>
     </row>
@@ -24805,27 +24814,28 @@
       <c r="P6" t="n">
         <v>416.656695813736</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.709779750126 -36.5304178494028, 174.7199117999006 -36.53188060688336)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.709779750126</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.5304178494028</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.7199117999006</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.53188060688336</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.7148457750133</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.53114922814308</v>
       </c>
     </row>
@@ -24882,27 +24892,28 @@
       <c r="P7" t="n">
         <v>408.3497319527415</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.70964112876095 -36.531221556064544, 174.71981948455283 -36.5324584033383)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.7096411287609</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.53122155606454</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.7198194845528</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.5324584033383</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.7147303066569</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.53183997970142</v>
       </c>
     </row>
@@ -24959,27 +24970,28 @@
       <c r="P8" t="n">
         <v>401.8290615693301</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.70949760921704 -36.531814696029414, 174.71961399811005 -36.53334672966315)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.709497609217</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.53181469602941</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.71961399811</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.53334672966315</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.7145558036635</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.53258071284628</v>
       </c>
     </row>
@@ -25036,27 +25048,28 @@
       <c r="P9" t="n">
         <v>401.186156612047</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.70927018286895 -36.53274822051205, 174.71949576736307 -36.533699910643975)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.7092701828689</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-36.53274822051205</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.7194957673631</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-36.53369991064397</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.714382975116</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-36.53322406557801</v>
       </c>
     </row>
@@ -25113,27 +25126,28 @@
       <c r="P10" t="n">
         <v>402.7988455811938</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.70920452856095 -36.53372307885477, 174.7194921095911 -36.5340074472448)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.7092045285609</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-36.53372307885477</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.7194921095911</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-36.5340074472448</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.714348319076</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-36.53386526304978</v>
       </c>
     </row>

--- a/data/nzd0131/nzd0131.xlsx
+++ b/data/nzd0131/nzd0131.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K537"/>
+  <dimension ref="A1:K543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18792,6 +18792,230 @@
         <v>413.9328571428572</v>
       </c>
       <c r="K537" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>552.4357142857143</v>
+      </c>
+      <c r="C538" t="inlineStr"/>
+      <c r="D538" t="n">
+        <v>379.65</v>
+      </c>
+      <c r="E538" t="n">
+        <v>400.33</v>
+      </c>
+      <c r="F538" t="n">
+        <v>396.54</v>
+      </c>
+      <c r="G538" t="n">
+        <v>389.66</v>
+      </c>
+      <c r="H538" t="n">
+        <v>397.2966666666667</v>
+      </c>
+      <c r="I538" t="n">
+        <v>413.42</v>
+      </c>
+      <c r="J538" t="n">
+        <v>406.5657142857143</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>548.6528571428571</v>
+      </c>
+      <c r="C539" t="inlineStr"/>
+      <c r="D539" t="n">
+        <v>356.21</v>
+      </c>
+      <c r="E539" t="n">
+        <v>384.23</v>
+      </c>
+      <c r="F539" t="n">
+        <v>409</v>
+      </c>
+      <c r="G539" t="n">
+        <v>392.69</v>
+      </c>
+      <c r="H539" t="n">
+        <v>404.02</v>
+      </c>
+      <c r="I539" t="n">
+        <v>413.79</v>
+      </c>
+      <c r="J539" t="n">
+        <v>395.3528571428572</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr"/>
+      <c r="C540" t="n">
+        <v>419.89</v>
+      </c>
+      <c r="D540" t="n">
+        <v>407.32</v>
+      </c>
+      <c r="E540" t="n">
+        <v>399.16</v>
+      </c>
+      <c r="F540" t="n">
+        <v>409.12</v>
+      </c>
+      <c r="G540" t="n">
+        <v>407.4</v>
+      </c>
+      <c r="H540" t="n">
+        <v>404.3533333333333</v>
+      </c>
+      <c r="I540" t="n">
+        <v>403.07</v>
+      </c>
+      <c r="J540" t="n">
+        <v>410.5442857142857</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>542.25</v>
+      </c>
+      <c r="C541" t="inlineStr"/>
+      <c r="D541" t="n">
+        <v>368.05</v>
+      </c>
+      <c r="E541" t="n">
+        <v>392.12</v>
+      </c>
+      <c r="F541" t="n">
+        <v>379.38</v>
+      </c>
+      <c r="G541" t="n">
+        <v>379.87</v>
+      </c>
+      <c r="H541" t="n">
+        <v>390.68</v>
+      </c>
+      <c r="I541" t="n">
+        <v>401.09</v>
+      </c>
+      <c r="J541" t="n">
+        <v>397.28</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr"/>
+      <c r="C542" t="n">
+        <v>406.67</v>
+      </c>
+      <c r="D542" t="n">
+        <v>390.89</v>
+      </c>
+      <c r="E542" t="n">
+        <v>394.67</v>
+      </c>
+      <c r="F542" t="n">
+        <v>402.73</v>
+      </c>
+      <c r="G542" t="n">
+        <v>397.15</v>
+      </c>
+      <c r="H542" t="n">
+        <v>401.16</v>
+      </c>
+      <c r="I542" t="n">
+        <v>404.38</v>
+      </c>
+      <c r="J542" t="n">
+        <v>413.5671428571428</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>477.3014285714286</v>
+      </c>
+      <c r="C543" t="n">
+        <v>405.53</v>
+      </c>
+      <c r="D543" t="n">
+        <v>382.24</v>
+      </c>
+      <c r="E543" t="n">
+        <v>390.17</v>
+      </c>
+      <c r="F543" t="n">
+        <v>393.91</v>
+      </c>
+      <c r="G543" t="n">
+        <v>387.32</v>
+      </c>
+      <c r="H543" t="n">
+        <v>390.7166666666667</v>
+      </c>
+      <c r="I543" t="n">
+        <v>403.2</v>
+      </c>
+      <c r="J543" t="n">
+        <v>406.5114285714286</v>
+      </c>
+      <c r="K543" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -18808,7 +19032,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B549"/>
+  <dimension ref="A1:B555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24306,6 +24530,66 @@
       </c>
       <c r="B549" t="n">
         <v>-0.38</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>-0.55</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>-0.66</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>-0.19</v>
       </c>
     </row>
   </sheetData>
@@ -24479,28 +24763,28 @@
         <v>0.0509</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6752470025853177</v>
+        <v>-0.3714952058932045</v>
       </c>
       <c r="J2" t="n">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="K2" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06498634638389977</v>
+        <v>0.01346817760432539</v>
       </c>
       <c r="M2" t="n">
-        <v>13.5031638654835</v>
+        <v>15.34885413311765</v>
       </c>
       <c r="N2" t="n">
-        <v>383.4893312507447</v>
+        <v>598.1629120012102</v>
       </c>
       <c r="O2" t="n">
-        <v>19.58288362960738</v>
+        <v>24.45736927801537</v>
       </c>
       <c r="P2" t="n">
-        <v>422.6786710053732</v>
+        <v>419.8058334883443</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24557,28 +24841,28 @@
         <v>0.0282</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3785238418757732</v>
+        <v>-0.3625783699289256</v>
       </c>
       <c r="J3" t="n">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="K3" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02090267863328388</v>
+        <v>0.01949448453491476</v>
       </c>
       <c r="M3" t="n">
-        <v>15.31730359971705</v>
+        <v>15.25493268180699</v>
       </c>
       <c r="N3" t="n">
-        <v>394.2443927871722</v>
+        <v>391.7444300963435</v>
       </c>
       <c r="O3" t="n">
-        <v>19.85558845230159</v>
+        <v>19.79253470620536</v>
       </c>
       <c r="P3" t="n">
-        <v>410.8902496264052</v>
+        <v>410.7398318552818</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24635,28 +24919,28 @@
         <v>0.0209</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.317851274189668</v>
+        <v>-0.3621113588387181</v>
       </c>
       <c r="J4" t="n">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="K4" t="n">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01416543065550879</v>
+        <v>0.01849375739568382</v>
       </c>
       <c r="M4" t="n">
-        <v>15.5171069426898</v>
+        <v>15.5595441252009</v>
       </c>
       <c r="N4" t="n">
-        <v>379.2706552951651</v>
+        <v>380.8392001998134</v>
       </c>
       <c r="O4" t="n">
-        <v>19.47487240767357</v>
+        <v>19.51510184958853</v>
       </c>
       <c r="P4" t="n">
-        <v>403.822752411602</v>
+        <v>404.2685359691265</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24713,28 +24997,28 @@
         <v>0.0457</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.351401332162069</v>
+        <v>-0.3539218937081965</v>
       </c>
       <c r="J5" t="n">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="K5" t="n">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02353370235381758</v>
+        <v>0.02446726603603611</v>
       </c>
       <c r="M5" t="n">
-        <v>13.30452380884286</v>
+        <v>13.1685118583432</v>
       </c>
       <c r="N5" t="n">
-        <v>296.1640842037198</v>
+        <v>292.0791539239721</v>
       </c>
       <c r="O5" t="n">
-        <v>17.20941847372304</v>
+        <v>17.09032340021604</v>
       </c>
       <c r="P5" t="n">
-        <v>403.3816306353543</v>
+        <v>403.4062183364086</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24791,28 +25075,28 @@
         <v>0.0259</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5309387698186194</v>
+        <v>-0.542417454267602</v>
       </c>
       <c r="J6" t="n">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="K6" t="n">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07639304756027387</v>
+        <v>0.08070269774643024</v>
       </c>
       <c r="M6" t="n">
-        <v>10.57727606937755</v>
+        <v>10.55742673991255</v>
       </c>
       <c r="N6" t="n">
-        <v>188.7515719510023</v>
+        <v>187.8964398512658</v>
       </c>
       <c r="O6" t="n">
-        <v>13.73868887306945</v>
+        <v>13.70753223053901</v>
       </c>
       <c r="P6" t="n">
-        <v>416.656695813736</v>
+        <v>416.7701335040688</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24869,28 +25153,28 @@
         <v>0.0256</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4682231443288284</v>
+        <v>-0.4784004742177794</v>
       </c>
       <c r="J7" t="n">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="K7" t="n">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07092036222680587</v>
+        <v>0.07513929922943274</v>
       </c>
       <c r="M7" t="n">
-        <v>9.856505634786245</v>
+        <v>9.834188774023941</v>
       </c>
       <c r="N7" t="n">
-        <v>157.1769148230203</v>
+        <v>156.2536330983668</v>
       </c>
       <c r="O7" t="n">
-        <v>12.53702176846719</v>
+        <v>12.50014532308992</v>
       </c>
       <c r="P7" t="n">
-        <v>408.3497319527415</v>
+        <v>408.4498526286657</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24947,28 +25231,28 @@
         <v>0.0308</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3097807184433121</v>
+        <v>-0.2992176348956223</v>
       </c>
       <c r="J8" t="n">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="K8" t="n">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03937916257800433</v>
+        <v>0.03763894878900886</v>
       </c>
       <c r="M8" t="n">
-        <v>8.636573682930882</v>
+        <v>8.599352593073961</v>
       </c>
       <c r="N8" t="n">
-        <v>126.2870185828478</v>
+        <v>125.2464947115892</v>
       </c>
       <c r="O8" t="n">
-        <v>11.23774971170153</v>
+        <v>11.19135803696715</v>
       </c>
       <c r="P8" t="n">
-        <v>401.8290615693301</v>
+        <v>401.7248999374119</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25025,28 +25309,28 @@
         <v>0.0416</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1199439292184701</v>
+        <v>-0.09864660534015496</v>
       </c>
       <c r="J9" t="n">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="K9" t="n">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006433992102554131</v>
+        <v>0.004433805895624809</v>
       </c>
       <c r="M9" t="n">
-        <v>8.841726765220438</v>
+        <v>8.833645809107361</v>
       </c>
       <c r="N9" t="n">
-        <v>122.796577761571</v>
+        <v>122.3932218949575</v>
       </c>
       <c r="O9" t="n">
-        <v>11.08136172866724</v>
+        <v>11.06314701587923</v>
       </c>
       <c r="P9" t="n">
-        <v>401.186156612047</v>
+        <v>400.9777657352012</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25103,28 +25387,28 @@
         <v>0.0356</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0729744968552765</v>
+        <v>0.07377199774622667</v>
       </c>
       <c r="J10" t="n">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="K10" t="n">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002614679836613676</v>
+        <v>0.00273006393042341</v>
       </c>
       <c r="M10" t="n">
-        <v>8.22029060190102</v>
+        <v>8.18795386650444</v>
       </c>
       <c r="N10" t="n">
-        <v>112.1467916971664</v>
+        <v>111.1978852494932</v>
       </c>
       <c r="O10" t="n">
-        <v>10.58993822914782</v>
+        <v>10.54504078937076</v>
       </c>
       <c r="P10" t="n">
-        <v>402.7988455811938</v>
+        <v>402.7909011372431</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -25162,7 +25446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K537"/>
+  <dimension ref="A1:K543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50579,6 +50863,328 @@
         </is>
       </c>
     </row>
+    <row r="538">
+      <c r="A538" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>-36.528246988554145,174.71642769496572</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr"/>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>-36.52961660223801,174.71438056655686</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>-36.530372501126095,174.71439259459584</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>-36.53104728652889,174.71413887563955</t>
+        </is>
+      </c>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>-36.53174456071822,174.71394416073952</t>
+        </is>
+      </c>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>-36.5324752030946,174.7138583483575</t>
+        </is>
+      </c>
+      <c r="I538" t="inlineStr">
+        <is>
+          <t>-36.533175202463894,174.7138567563406</t>
+        </is>
+      </c>
+      <c r="J538" t="inlineStr">
+        <is>
+          <t>-36.533848622830064,174.71374235341685</t>
+        </is>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>-36.52824511944643,174.71638551496162</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr"/>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>-36.529587134062496,174.71412136420662</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>-36.53033962998145,174.71421747359298</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>-36.531067061961124,174.71427584824784</t>
+        </is>
+      </c>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>-36.53174862699277,174.71397762136178</t>
+        </is>
+      </c>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>-36.53248637926915,174.71393214443415</t>
+        </is>
+      </c>
+      <c r="I539" t="inlineStr">
+        <is>
+          <t>-36.53317558452184,174.71386086122237</t>
+        </is>
+      </c>
+      <c r="J539" t="inlineStr">
+        <is>
+          <t>-36.53384516271854,174.71361720261797</t>
+        </is>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr"/>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>-36.5289017418861,174.71489003865105</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>-36.5296513875304,174.71468654498238</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>-36.530370112362284,174.7143798684065</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>-36.53106725241395,174.7142771674065</t>
+        </is>
+      </c>
+      <c r="G540" t="inlineStr">
+        <is>
+          <t>-36.53176836774855,174.71414006554932</t>
+        </is>
+      </c>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>-36.53248693336683,174.7139358031395</t>
+        </is>
+      </c>
+      <c r="I540" t="inlineStr">
+        <is>
+          <t>-36.53316451510986,174.7137419306075</t>
+        </is>
+      </c>
+      <c r="J540" t="inlineStr">
+        <is>
+          <t>-36.53384985052303,174.71378675970882</t>
+        </is>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>-36.52824195576397,174.71631412116642</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr"/>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>-36.52960201908234,174.7142522923344</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>-36.530355738916676,174.71430329374417</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>-36.53102005140321,174.71395023610017</t>
+        </is>
+      </c>
+      <c r="G541" t="inlineStr">
+        <is>
+          <t>-36.53173142242637,174.71383604871747</t>
+        </is>
+      </c>
+      <c r="H541" t="inlineStr">
+        <is>
+          <t>-36.53246420418654,174.7137857230854</t>
+        </is>
+      </c>
+      <c r="I541" t="inlineStr">
+        <is>
+          <t>-36.53316247055985,174.71371996394865</t>
+        </is>
+      </c>
+      <c r="J541" t="inlineStr">
+        <is>
+          <t>-36.53384575741393,174.71363871216371</t>
+        </is>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr"/>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>-36.52889520797172,174.71474263045508</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>-36.52963073268009,174.7145048598959</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>-36.53036094521311,174.71433103030202</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>-36.53105711078039,174.7142069222163</t>
+        </is>
+      </c>
+      <c r="G542" t="inlineStr">
+        <is>
+          <t>-36.531754612316924,174.71402687363653</t>
+        </is>
+      </c>
+      <c r="H542" t="inlineStr">
+        <is>
+          <t>-36.53248162510635,174.71390075274425</t>
+        </is>
+      </c>
+      <c r="I542" t="inlineStr">
+        <is>
+          <t>-36.53316586781492,174.7137564641046</t>
+        </is>
+      </c>
+      <c r="J542" t="inlineStr">
+        <is>
+          <t>-36.53385078329411,174.71382049892438</t>
+        </is>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>-36.528209861937455,174.7155899251673</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>-36.528894644524236,174.71472991900782</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>-36.52961985828564,174.71440920710026</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>-36.53035175762674,174.71428208343755</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>-36.53104311240043,174.71410996409392</t>
+        </is>
+      </c>
+      <c r="G543" t="inlineStr">
+        <is>
+          <t>-36.53174142042049,174.7139183198651</t>
+        </is>
+      </c>
+      <c r="H543" t="inlineStr">
+        <is>
+          <t>-36.5324642651378,174.71378612554275</t>
+        </is>
+      </c>
+      <c r="I543" t="inlineStr">
+        <is>
+          <t>-36.53316464934784,174.71374337286292</t>
+        </is>
+      </c>
+      <c r="J543" t="inlineStr">
+        <is>
+          <t>-36.53384860607866,174.71374174751412</t>
+        </is>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0131/nzd0131.xlsx
+++ b/data/nzd0131/nzd0131.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K543"/>
+  <dimension ref="A1:K545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18988,9 +18988,7 @@
           <t>2025-04-11 22:11:41+00:00</t>
         </is>
       </c>
-      <c r="B543" t="n">
-        <v>477.3014285714286</v>
-      </c>
+      <c r="B543" t="inlineStr"/>
       <c r="C543" t="n">
         <v>405.53</v>
       </c>
@@ -19018,6 +19016,76 @@
       <c r="K543" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:03+00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr"/>
+      <c r="C544" t="n">
+        <v>390.23</v>
+      </c>
+      <c r="D544" t="n">
+        <v>378.04</v>
+      </c>
+      <c r="E544" t="n">
+        <v>370.56</v>
+      </c>
+      <c r="F544" t="n">
+        <v>379.04</v>
+      </c>
+      <c r="G544" t="n">
+        <v>372.52</v>
+      </c>
+      <c r="H544" t="n">
+        <v>373.75</v>
+      </c>
+      <c r="I544" t="n">
+        <v>370.72</v>
+      </c>
+      <c r="J544" t="n">
+        <v>380.4014285714285</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>539.1257142857144</v>
+      </c>
+      <c r="C545" t="inlineStr"/>
+      <c r="D545" t="n">
+        <v>389.44</v>
+      </c>
+      <c r="E545" t="n">
+        <v>409.63</v>
+      </c>
+      <c r="F545" t="n">
+        <v>410.22</v>
+      </c>
+      <c r="G545" t="n">
+        <v>400.36</v>
+      </c>
+      <c r="H545" t="n">
+        <v>402.81</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -19032,7 +19100,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B555"/>
+  <dimension ref="A1:B557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24590,6 +24658,26 @@
       </c>
       <c r="B555" t="n">
         <v>-0.19</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>-0.48</v>
       </c>
     </row>
   </sheetData>
@@ -24763,28 +24851,28 @@
         <v>0.0509</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3714952058932045</v>
+        <v>-0.3330841668289702</v>
       </c>
       <c r="J2" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K2" t="n">
         <v>289</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01346817760432539</v>
+        <v>0.01015488726480973</v>
       </c>
       <c r="M2" t="n">
-        <v>15.34885413311765</v>
+        <v>15.62898313397543</v>
       </c>
       <c r="N2" t="n">
-        <v>598.1629120012102</v>
+        <v>639.9499439552983</v>
       </c>
       <c r="O2" t="n">
-        <v>24.45736927801537</v>
+        <v>25.2972319425525</v>
       </c>
       <c r="P2" t="n">
-        <v>419.8058334883443</v>
+        <v>419.4382191810889</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24841,28 +24929,28 @@
         <v>0.0282</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3625783699289256</v>
+        <v>-0.3688452442459402</v>
       </c>
       <c r="J3" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K3" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01949448453491476</v>
+        <v>0.02025849915856781</v>
       </c>
       <c r="M3" t="n">
-        <v>15.25493268180699</v>
+        <v>15.24455061691267</v>
       </c>
       <c r="N3" t="n">
-        <v>391.7444300963435</v>
+        <v>390.9035207069828</v>
       </c>
       <c r="O3" t="n">
-        <v>19.79253470620536</v>
+        <v>19.77128019899022</v>
       </c>
       <c r="P3" t="n">
-        <v>410.7398318552818</v>
+        <v>410.7992537136873</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24919,28 +25007,28 @@
         <v>0.0209</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3621113588387181</v>
+        <v>-0.3731379353515582</v>
       </c>
       <c r="J4" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K4" t="n">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01849375739568382</v>
+        <v>0.01976568872760809</v>
       </c>
       <c r="M4" t="n">
-        <v>15.5595441252009</v>
+        <v>15.53466156379125</v>
       </c>
       <c r="N4" t="n">
-        <v>380.8392001998134</v>
+        <v>379.6405290277505</v>
       </c>
       <c r="O4" t="n">
-        <v>19.51510184958853</v>
+        <v>19.48436627216165</v>
       </c>
       <c r="P4" t="n">
-        <v>404.2685359691265</v>
+        <v>404.380295307592</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24997,28 +25085,28 @@
         <v>0.0457</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3539218937081965</v>
+        <v>-0.3576036085745761</v>
       </c>
       <c r="J5" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K5" t="n">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02446726603603611</v>
+        <v>0.02501313704598351</v>
       </c>
       <c r="M5" t="n">
-        <v>13.1685118583432</v>
+        <v>13.19807735161226</v>
       </c>
       <c r="N5" t="n">
-        <v>292.0791539239721</v>
+        <v>292.6263224379926</v>
       </c>
       <c r="O5" t="n">
-        <v>17.09032340021604</v>
+        <v>17.10632404808212</v>
       </c>
       <c r="P5" t="n">
-        <v>403.4062183364086</v>
+        <v>403.442126552843</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25075,28 +25163,28 @@
         <v>0.0259</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.542417454267602</v>
+        <v>-0.549154648935373</v>
       </c>
       <c r="J6" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K6" t="n">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08070269774643024</v>
+        <v>0.08263588658692811</v>
       </c>
       <c r="M6" t="n">
-        <v>10.55742673991255</v>
+        <v>10.58431337982474</v>
       </c>
       <c r="N6" t="n">
-        <v>187.8964398512658</v>
+        <v>188.4452669614011</v>
       </c>
       <c r="O6" t="n">
-        <v>13.70753223053901</v>
+        <v>13.72753681333258</v>
       </c>
       <c r="P6" t="n">
-        <v>416.7701335040688</v>
+        <v>416.8369683713209</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25153,28 +25241,28 @@
         <v>0.0256</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4784004742177794</v>
+        <v>-0.4865490937489328</v>
       </c>
       <c r="J7" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K7" t="n">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07513929922943274</v>
+        <v>0.07756774509386155</v>
       </c>
       <c r="M7" t="n">
-        <v>9.834188774023941</v>
+        <v>9.856250714109962</v>
       </c>
       <c r="N7" t="n">
-        <v>156.2536330983668</v>
+        <v>156.8381587627025</v>
       </c>
       <c r="O7" t="n">
-        <v>12.50014532308992</v>
+        <v>12.52350425251265</v>
       </c>
       <c r="P7" t="n">
-        <v>408.4498526286657</v>
+        <v>408.5303885543333</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25231,28 +25319,28 @@
         <v>0.0308</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2992176348956223</v>
+        <v>-0.3041148232082182</v>
       </c>
       <c r="J8" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K8" t="n">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03763894878900886</v>
+        <v>0.03884790875270749</v>
       </c>
       <c r="M8" t="n">
-        <v>8.599352593073961</v>
+        <v>8.628208717809645</v>
       </c>
       <c r="N8" t="n">
-        <v>125.2464947115892</v>
+        <v>125.7740252927828</v>
       </c>
       <c r="O8" t="n">
-        <v>11.19135803696715</v>
+        <v>11.21490192969974</v>
       </c>
       <c r="P8" t="n">
-        <v>401.7248999374119</v>
+        <v>401.7734617356252</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25309,28 +25397,28 @@
         <v>0.0416</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.09864660534015496</v>
+        <v>-0.1104615387698467</v>
       </c>
       <c r="J9" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K9" t="n">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004433805895624809</v>
+        <v>0.005499752672101232</v>
       </c>
       <c r="M9" t="n">
-        <v>8.833645809107361</v>
+        <v>8.876857792782953</v>
       </c>
       <c r="N9" t="n">
-        <v>122.3932218949575</v>
+        <v>123.8602964982256</v>
       </c>
       <c r="O9" t="n">
-        <v>11.06314701587923</v>
+        <v>11.12925408543742</v>
       </c>
       <c r="P9" t="n">
-        <v>400.9777657352012</v>
+        <v>401.0941297673012</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25387,28 +25475,28 @@
         <v>0.0356</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07377199774622667</v>
+        <v>0.06341093119372973</v>
       </c>
       <c r="J10" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K10" t="n">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00273006393042341</v>
+        <v>0.002003158772837299</v>
       </c>
       <c r="M10" t="n">
-        <v>8.18795386650444</v>
+        <v>8.222459491853048</v>
       </c>
       <c r="N10" t="n">
-        <v>111.1978852494932</v>
+        <v>112.2912394875737</v>
       </c>
       <c r="O10" t="n">
-        <v>10.54504078937076</v>
+        <v>10.5967560832348</v>
       </c>
       <c r="P10" t="n">
-        <v>402.7909011372431</v>
+        <v>402.8934008044177</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -25446,7 +25534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K543"/>
+  <dimension ref="A1:K545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51134,11 +51222,7 @@
           <t>2025-04-11 22:11:41+00:00</t>
         </is>
       </c>
-      <c r="B543" t="inlineStr">
-        <is>
-          <t>-36.528209861937455,174.7155899251673</t>
-        </is>
-      </c>
+      <c r="B543" t="inlineStr"/>
       <c r="C543" t="inlineStr">
         <is>
           <t>-36.528894644524236,174.71472991900782</t>
@@ -51182,6 +51266,104 @@
       <c r="K543" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:03+00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr"/>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>-36.52888708233433,174.7145593180179</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>-36.52961457820491,174.71436276297686</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>-36.530311719928626,174.7140687840055</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>-36.53101951177644,174.71394649848813</t>
+        </is>
+      </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>-36.531721558577296,174.71375488189912</t>
+        </is>
+      </c>
+      <c r="H544" t="inlineStr">
+        <is>
+          <t>-36.532436061184505,174.71359989760094</t>
+        </is>
+      </c>
+      <c r="I544" t="inlineStr">
+        <is>
+          <t>-36.53313110995605,174.71338303102792</t>
+        </is>
+      </c>
+      <c r="J544" t="inlineStr">
+        <is>
+          <t>-36.53384054873774,174.7134503242654</t>
+        </is>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>-36.52824041202382,174.7162792844365</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr"/>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>-36.52962890981012,174.71448882561057</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>-36.53039148868685,174.71449375151153</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>-36.531068998230836,174.71428925969443</t>
+        </is>
+      </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>-36.53175892012718,174.71406232202682</t>
+        </is>
+      </c>
+      <c r="H545" t="inlineStr">
+        <is>
+          <t>-36.53248436789359,174.71391886333413</t>
+        </is>
+      </c>
+      <c r="I545" t="inlineStr"/>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0131/nzd0131.xlsx
+++ b/data/nzd0131/nzd0131.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -26925,7 +26925,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-36.53109121761004,174.71444316158443</t>
+          <t>-36.53109121761003,174.71444316158443</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -41882,7 +41882,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>-36.53245726127591,174.71373987953544</t>
+          <t>-36.5324572612759,174.71373987953544</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">

--- a/data/nzd0131/nzd0131.xlsx
+++ b/data/nzd0131/nzd0131.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K545"/>
+  <dimension ref="A1:K547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19081,9 +19081,83 @@
       <c r="H545" t="n">
         <v>402.81</v>
       </c>
-      <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
+      <c r="I545" t="n">
+        <v>411.5</v>
+      </c>
+      <c r="J545" t="n">
+        <v>422.0457142857143</v>
+      </c>
       <c r="K545" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr"/>
+      <c r="C546" t="inlineStr"/>
+      <c r="D546" t="inlineStr"/>
+      <c r="E546" t="n">
+        <v>399.71</v>
+      </c>
+      <c r="F546" t="n">
+        <v>392.58</v>
+      </c>
+      <c r="G546" t="n">
+        <v>386.33</v>
+      </c>
+      <c r="H546" t="n">
+        <v>385.9066666666667</v>
+      </c>
+      <c r="I546" t="n">
+        <v>403.94</v>
+      </c>
+      <c r="J546" t="n">
+        <v>400.6771428571428</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr"/>
+      <c r="C547" t="n">
+        <v>406.59</v>
+      </c>
+      <c r="D547" t="n">
+        <v>404.17</v>
+      </c>
+      <c r="E547" t="n">
+        <v>382.02</v>
+      </c>
+      <c r="F547" t="n">
+        <v>398.18</v>
+      </c>
+      <c r="G547" t="n">
+        <v>387.87</v>
+      </c>
+      <c r="H547" t="n">
+        <v>390.21</v>
+      </c>
+      <c r="I547" t="n">
+        <v>391.07</v>
+      </c>
+      <c r="J547" t="n">
+        <v>399.2657142857143</v>
+      </c>
+      <c r="K547" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -19100,7 +19174,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B557"/>
+  <dimension ref="A1:B559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24678,6 +24752,26 @@
       </c>
       <c r="B557" t="n">
         <v>-0.48</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>-0.88</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -24854,7 +24948,7 @@
         <v>-0.3330841668289702</v>
       </c>
       <c r="J2" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K2" t="n">
         <v>289</v>
@@ -24929,28 +25023,28 @@
         <v>0.0282</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3688452442459402</v>
+        <v>-0.365865784616845</v>
       </c>
       <c r="J3" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K3" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02025849915856781</v>
+        <v>0.02005268638586999</v>
       </c>
       <c r="M3" t="n">
-        <v>15.24455061691267</v>
+        <v>15.21213187882484</v>
       </c>
       <c r="N3" t="n">
-        <v>390.9035207069828</v>
+        <v>389.7656516808194</v>
       </c>
       <c r="O3" t="n">
-        <v>19.77128019899022</v>
+        <v>19.74248342232606</v>
       </c>
       <c r="P3" t="n">
-        <v>410.7992537136873</v>
+        <v>410.7707971304766</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25007,28 +25101,28 @@
         <v>0.0209</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3731379353515582</v>
+        <v>-0.3684915633471902</v>
       </c>
       <c r="J4" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K4" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01976568872760809</v>
+        <v>0.01937002838095125</v>
       </c>
       <c r="M4" t="n">
-        <v>15.53466156379125</v>
+        <v>15.5187812788653</v>
       </c>
       <c r="N4" t="n">
-        <v>379.6405290277505</v>
+        <v>378.8628760199426</v>
       </c>
       <c r="O4" t="n">
-        <v>19.48436627216165</v>
+        <v>19.46440022245593</v>
       </c>
       <c r="P4" t="n">
-        <v>404.380295307592</v>
+        <v>404.3328886421303</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25085,28 +25179,28 @@
         <v>0.0457</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3576036085745761</v>
+        <v>-0.3605413739726038</v>
       </c>
       <c r="J5" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K5" t="n">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02501313704598351</v>
+        <v>0.02559877531205879</v>
       </c>
       <c r="M5" t="n">
-        <v>13.19807735161226</v>
+        <v>13.17367503171284</v>
       </c>
       <c r="N5" t="n">
-        <v>292.6263224379926</v>
+        <v>291.5939404274317</v>
       </c>
       <c r="O5" t="n">
-        <v>17.10632404808212</v>
+        <v>17.07612193758969</v>
       </c>
       <c r="P5" t="n">
-        <v>403.442126552843</v>
+        <v>403.4710930284755</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25163,28 +25257,28 @@
         <v>0.0259</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.549154648935373</v>
+        <v>-0.5551331080200853</v>
       </c>
       <c r="J6" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K6" t="n">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08263588658692811</v>
+        <v>0.08484280770458286</v>
       </c>
       <c r="M6" t="n">
-        <v>10.58431337982474</v>
+        <v>10.57305290631351</v>
       </c>
       <c r="N6" t="n">
-        <v>188.4452669614011</v>
+        <v>187.8709828233447</v>
       </c>
       <c r="O6" t="n">
-        <v>13.72753681333258</v>
+        <v>13.7066036210049</v>
       </c>
       <c r="P6" t="n">
-        <v>416.8369683713209</v>
+        <v>416.8966650244498</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25241,28 +25335,28 @@
         <v>0.0256</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4865490937489328</v>
+        <v>-0.4939791610086943</v>
       </c>
       <c r="J7" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K7" t="n">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07756774509386155</v>
+        <v>0.08025491366092152</v>
       </c>
       <c r="M7" t="n">
-        <v>9.856250714109962</v>
+        <v>9.855228344664122</v>
       </c>
       <c r="N7" t="n">
-        <v>156.8381587627025</v>
+        <v>156.4896998971207</v>
       </c>
       <c r="O7" t="n">
-        <v>12.52350425251265</v>
+        <v>12.50958432151607</v>
       </c>
       <c r="P7" t="n">
-        <v>408.5303885543333</v>
+        <v>408.6042796866604</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25319,28 +25413,28 @@
         <v>0.0308</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3041148232082182</v>
+        <v>-0.3090999644206078</v>
       </c>
       <c r="J8" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K8" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03884790875270749</v>
+        <v>0.04037859460237136</v>
       </c>
       <c r="M8" t="n">
-        <v>8.628208717809645</v>
+        <v>8.618160560561982</v>
       </c>
       <c r="N8" t="n">
-        <v>125.7740252927828</v>
+        <v>125.388550471666</v>
       </c>
       <c r="O8" t="n">
-        <v>11.21490192969974</v>
+        <v>11.19770291049312</v>
       </c>
       <c r="P8" t="n">
-        <v>401.7734617356252</v>
+        <v>401.8232118222384</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25397,28 +25491,28 @@
         <v>0.0416</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1104615387698467</v>
+        <v>-0.1055525435072589</v>
       </c>
       <c r="J9" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K9" t="n">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005499752672101232</v>
+        <v>0.005067568453504534</v>
       </c>
       <c r="M9" t="n">
-        <v>8.876857792782953</v>
+        <v>8.875307422435526</v>
       </c>
       <c r="N9" t="n">
-        <v>123.8602964982256</v>
+        <v>123.6029871896179</v>
       </c>
       <c r="O9" t="n">
-        <v>11.12925408543742</v>
+        <v>11.11768803257305</v>
       </c>
       <c r="P9" t="n">
-        <v>401.0941297673012</v>
+        <v>401.0458037303076</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25475,28 +25569,28 @@
         <v>0.0356</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06341093119372973</v>
+        <v>0.06689538781950403</v>
       </c>
       <c r="J10" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K10" t="n">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002003158772837299</v>
+        <v>0.002242652856059846</v>
       </c>
       <c r="M10" t="n">
-        <v>8.222459491853048</v>
+        <v>8.227834264768108</v>
       </c>
       <c r="N10" t="n">
-        <v>112.2912394875737</v>
+        <v>112.3193070217295</v>
       </c>
       <c r="O10" t="n">
-        <v>10.5967560832348</v>
+        <v>10.59808034606879</v>
       </c>
       <c r="P10" t="n">
-        <v>402.8934008044177</v>
+        <v>402.8591033352113</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -25534,7 +25628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K545"/>
+  <dimension ref="A1:K547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51359,9 +51453,115 @@
           <t>-36.53248436789359,174.71391886333413</t>
         </is>
       </c>
-      <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
+      <c r="I545" t="inlineStr">
+        <is>
+          <t>-36.533173219890706,174.71383545533297</t>
+        </is>
+      </c>
+      <c r="J545" t="inlineStr">
+        <is>
+          <t>-36.5338533994984,174.71391513136714</t>
+        </is>
+      </c>
       <c r="K545" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr"/>
+      <c r="C546" t="inlineStr"/>
+      <c r="D546" t="inlineStr"/>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>-36.530371235285635,174.7143858508031</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>-36.5310410015267,174.71409534342746</t>
+        </is>
+      </c>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>-36.53174009183128,174.71390738718802</t>
+        </is>
+      </c>
+      <c r="H546" t="inlineStr">
+        <is>
+          <t>-36.532456269430064,174.71373333045747</t>
+        </is>
+      </c>
+      <c r="I546" t="inlineStr">
+        <is>
+          <t>-36.533165413471444,174.7137515826246</t>
+        </is>
+      </c>
+      <c r="J546" t="inlineStr">
+        <is>
+          <t>-36.533846805725865,174.71367662891706</t>
+        </is>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr"/>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>-36.528895168431575,174.7147417384237</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>-36.52964742755336,174.71465171186418</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>-36.53033511783499,174.71419343525494</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>-36.53104988940387,174.7141569041333</t>
+        </is>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>-36.53174215852516,174.71392439357473</t>
+        </is>
+      </c>
+      <c r="H547" t="inlineStr">
+        <is>
+          <t>-36.5324634229022,174.71378056431362</t>
+        </is>
+      </c>
+      <c r="I547" t="inlineStr">
+        <is>
+          <t>-36.53315212383518,174.71360879935688</t>
+        </is>
+      </c>
+      <c r="J547" t="inlineStr">
+        <is>
+          <t>-36.533846370179745,174.71366087544672</t>
+        </is>
+      </c>
+      <c r="K547" t="inlineStr">
         <is>
           <t>L8</t>
         </is>

--- a/data/nzd0131/nzd0131.xlsx
+++ b/data/nzd0131/nzd0131.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K547"/>
+  <dimension ref="A1:K549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19132,7 +19132,9 @@
           <t>2025-06-15 22:05:40+00:00</t>
         </is>
       </c>
-      <c r="B547" t="inlineStr"/>
+      <c r="B547" t="n">
+        <v>406.3157142857143</v>
+      </c>
       <c r="C547" t="n">
         <v>406.59</v>
       </c>
@@ -19160,6 +19162,56 @@
       <c r="K547" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:28+00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr"/>
+      <c r="C548" t="inlineStr"/>
+      <c r="D548" t="inlineStr"/>
+      <c r="E548" t="inlineStr"/>
+      <c r="F548" t="inlineStr"/>
+      <c r="G548" t="inlineStr"/>
+      <c r="H548" t="n">
+        <v>388.8766666666667</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>431.8771428571428</v>
+      </c>
+      <c r="C549" t="inlineStr"/>
+      <c r="D549" t="inlineStr"/>
+      <c r="E549" t="inlineStr"/>
+      <c r="F549" t="n">
+        <v>579.8</v>
+      </c>
+      <c r="G549" t="n">
+        <v>372.38</v>
+      </c>
+      <c r="H549" t="inlineStr"/>
+      <c r="I549" t="inlineStr"/>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -19174,7 +19226,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B559"/>
+  <dimension ref="A1:B561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24772,6 +24824,26 @@
       </c>
       <c r="B559" t="n">
         <v>0.78</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -24945,28 +25017,28 @@
         <v>0.0509</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3330841668289702</v>
+        <v>-0.322843460364799</v>
       </c>
       <c r="J2" t="n">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K2" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01015488726480973</v>
+        <v>0.00964818315625271</v>
       </c>
       <c r="M2" t="n">
-        <v>15.62898313397543</v>
+        <v>15.62754667364349</v>
       </c>
       <c r="N2" t="n">
-        <v>639.9499439552983</v>
+        <v>637.1382664621023</v>
       </c>
       <c r="O2" t="n">
-        <v>25.2972319425525</v>
+        <v>25.24159793796942</v>
       </c>
       <c r="P2" t="n">
-        <v>419.4382191810889</v>
+        <v>419.339247472903</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25026,7 +25098,7 @@
         <v>-0.365865784616845</v>
       </c>
       <c r="J3" t="n">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K3" t="n">
         <v>319</v>
@@ -25104,7 +25176,7 @@
         <v>-0.3684915633471902</v>
       </c>
       <c r="J4" t="n">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K4" t="n">
         <v>375</v>
@@ -25182,7 +25254,7 @@
         <v>-0.3605413739726038</v>
       </c>
       <c r="J5" t="n">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K5" t="n">
         <v>394</v>
@@ -25257,28 +25329,28 @@
         <v>0.0259</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5551331080200853</v>
+        <v>-0.4820593197520808</v>
       </c>
       <c r="J6" t="n">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K6" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08484280770458286</v>
+        <v>0.04866009231698687</v>
       </c>
       <c r="M6" t="n">
-        <v>10.57305290631351</v>
+        <v>10.91108894421059</v>
       </c>
       <c r="N6" t="n">
-        <v>187.8709828233447</v>
+        <v>257.3072061725274</v>
       </c>
       <c r="O6" t="n">
-        <v>13.7066036210049</v>
+        <v>16.04079817753865</v>
       </c>
       <c r="P6" t="n">
-        <v>416.8966650244498</v>
+        <v>416.1621637368031</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25335,28 +25407,28 @@
         <v>0.0256</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4939791610086943</v>
+        <v>-0.5038251330123437</v>
       </c>
       <c r="J7" t="n">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K7" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08025491366092152</v>
+        <v>0.08297186441379978</v>
       </c>
       <c r="M7" t="n">
-        <v>9.855228344664122</v>
+        <v>9.889334932905877</v>
       </c>
       <c r="N7" t="n">
-        <v>156.4896998971207</v>
+        <v>157.3511153105005</v>
       </c>
       <c r="O7" t="n">
-        <v>12.50958432151607</v>
+        <v>12.54396728752513</v>
       </c>
       <c r="P7" t="n">
-        <v>408.6042796866604</v>
+        <v>408.7028000201593</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25413,28 +25485,28 @@
         <v>0.0308</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3090999644206078</v>
+        <v>-0.3112049280143913</v>
       </c>
       <c r="J8" t="n">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K8" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04037859460237136</v>
+        <v>0.04107053929706905</v>
       </c>
       <c r="M8" t="n">
-        <v>8.618160560561982</v>
+        <v>8.610922318662684</v>
       </c>
       <c r="N8" t="n">
-        <v>125.388550471666</v>
+        <v>125.1653349011752</v>
       </c>
       <c r="O8" t="n">
-        <v>11.19770291049312</v>
+        <v>11.18773144570316</v>
       </c>
       <c r="P8" t="n">
-        <v>401.8232118222384</v>
+        <v>401.8443257552779</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25494,7 +25566,7 @@
         <v>-0.1055525435072589</v>
       </c>
       <c r="J9" t="n">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K9" t="n">
         <v>440</v>
@@ -25572,7 +25644,7 @@
         <v>0.06689538781950403</v>
       </c>
       <c r="J10" t="n">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K10" t="n">
         <v>437</v>
@@ -25628,7 +25700,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K547"/>
+  <dimension ref="A1:K549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51520,7 +51592,11 @@
           <t>2025-06-15 22:05:40+00:00</t>
         </is>
       </c>
-      <c r="B547" t="inlineStr"/>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>-36.52817477985384,174.71479841370163</t>
+        </is>
+      </c>
       <c r="C547" t="inlineStr">
         <is>
           <t>-36.528895168431575,174.7147417384237</t>
@@ -51564,6 +51640,64 @@
       <c r="K547" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:28+00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr"/>
+      <c r="C548" t="inlineStr"/>
+      <c r="D548" t="inlineStr"/>
+      <c r="E548" t="inlineStr"/>
+      <c r="F548" t="inlineStr"/>
+      <c r="G548" t="inlineStr"/>
+      <c r="H548" t="inlineStr">
+        <is>
+          <t>-36.532461206491476,174.71376592950065</t>
+        </is>
+      </c>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>-36.52818741325934,174.7150834310446</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr"/>
+      <c r="D549" t="inlineStr"/>
+      <c r="E549" t="inlineStr"/>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>-36.53133812486176,174.71615345670813</t>
+        </is>
+      </c>
+      <c r="G549" t="inlineStr">
+        <is>
+          <t>-36.53172137069391,174.71375333586465</t>
+        </is>
+      </c>
+      <c r="H549" t="inlineStr"/>
+      <c r="I549" t="inlineStr"/>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0131/nzd0131.xlsx
+++ b/data/nzd0131/nzd0131.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K549"/>
+  <dimension ref="A1:K550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19200,9 +19200,7 @@
       <c r="C549" t="inlineStr"/>
       <c r="D549" t="inlineStr"/>
       <c r="E549" t="inlineStr"/>
-      <c r="F549" t="n">
-        <v>579.8</v>
-      </c>
+      <c r="F549" t="inlineStr"/>
       <c r="G549" t="n">
         <v>372.38</v>
       </c>
@@ -19212,6 +19210,45 @@
       <c r="K549" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>425.7814285714285</v>
+      </c>
+      <c r="C550" t="n">
+        <v>399.8200000000001</v>
+      </c>
+      <c r="D550" t="n">
+        <v>381.23</v>
+      </c>
+      <c r="E550" t="n">
+        <v>382.76</v>
+      </c>
+      <c r="F550" t="n">
+        <v>375.34</v>
+      </c>
+      <c r="G550" t="n">
+        <v>378.39</v>
+      </c>
+      <c r="H550" t="n">
+        <v>384.44</v>
+      </c>
+      <c r="I550" t="n">
+        <v>387.06</v>
+      </c>
+      <c r="J550" t="n">
+        <v>395.6114285714286</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -19226,7 +19263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B561"/>
+  <dimension ref="A1:B562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24844,6 +24881,16 @@
       </c>
       <c r="B561" t="n">
         <v>0.31</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
@@ -25017,28 +25064,28 @@
         <v>0.0509</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.322843460364799</v>
+        <v>-0.3137506015764743</v>
       </c>
       <c r="J2" t="n">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K2" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00964818315625271</v>
+        <v>0.009166498512754973</v>
       </c>
       <c r="M2" t="n">
-        <v>15.62754667364349</v>
+        <v>15.64095603691843</v>
       </c>
       <c r="N2" t="n">
-        <v>637.1382664621023</v>
+        <v>635.7010908436564</v>
       </c>
       <c r="O2" t="n">
-        <v>25.24159793796942</v>
+        <v>25.21311346985248</v>
       </c>
       <c r="P2" t="n">
-        <v>419.339247472903</v>
+        <v>419.2513170317479</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25095,28 +25142,28 @@
         <v>0.0282</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.365865784616845</v>
+        <v>-0.366686215512167</v>
       </c>
       <c r="J3" t="n">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K3" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02005268638586999</v>
+        <v>0.02026170317636611</v>
       </c>
       <c r="M3" t="n">
-        <v>15.21213187882484</v>
+        <v>15.16944678143207</v>
       </c>
       <c r="N3" t="n">
-        <v>389.7656516808194</v>
+        <v>388.5541871407897</v>
       </c>
       <c r="O3" t="n">
-        <v>19.74248342232606</v>
+        <v>19.71177787874015</v>
       </c>
       <c r="P3" t="n">
-        <v>410.7707971304766</v>
+        <v>410.7786967815227</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25173,28 +25220,28 @@
         <v>0.0209</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3684915633471902</v>
+        <v>-0.3752166113072929</v>
       </c>
       <c r="J4" t="n">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K4" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01937002838095125</v>
+        <v>0.0201454917874514</v>
       </c>
       <c r="M4" t="n">
-        <v>15.5187812788653</v>
+        <v>15.51264461782521</v>
       </c>
       <c r="N4" t="n">
-        <v>378.8628760199426</v>
+        <v>378.3389610428196</v>
       </c>
       <c r="O4" t="n">
-        <v>19.46440022245593</v>
+        <v>19.45093727928862</v>
       </c>
       <c r="P4" t="n">
-        <v>404.3328886421303</v>
+        <v>404.4020329704114</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25251,28 +25298,28 @@
         <v>0.0457</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3605413739726038</v>
+        <v>-0.3655420176141201</v>
       </c>
       <c r="J5" t="n">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K5" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02559877531205879</v>
+        <v>0.02638305194760271</v>
       </c>
       <c r="M5" t="n">
-        <v>13.17367503171284</v>
+        <v>13.16504108829335</v>
       </c>
       <c r="N5" t="n">
-        <v>291.5939404274317</v>
+        <v>291.1797479927062</v>
       </c>
       <c r="O5" t="n">
-        <v>17.07612193758969</v>
+        <v>17.06398980287747</v>
       </c>
       <c r="P5" t="n">
-        <v>403.4710930284755</v>
+        <v>403.5207665252889</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25329,28 +25376,28 @@
         <v>0.0259</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4820593197520808</v>
+        <v>-0.5663664699730797</v>
       </c>
       <c r="J6" t="n">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K6" t="n">
         <v>447</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04866009231698687</v>
+        <v>0.08765773389050691</v>
       </c>
       <c r="M6" t="n">
-        <v>10.91108894421059</v>
+        <v>10.61730429320804</v>
       </c>
       <c r="N6" t="n">
-        <v>257.3072061725274</v>
+        <v>189.0886890963077</v>
       </c>
       <c r="O6" t="n">
-        <v>16.04079817753865</v>
+        <v>13.7509522977977</v>
       </c>
       <c r="P6" t="n">
-        <v>416.1621637368031</v>
+        <v>417.0098146416221</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25407,28 +25454,28 @@
         <v>0.0256</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5038251330123437</v>
+        <v>-0.5110497084309497</v>
       </c>
       <c r="J7" t="n">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K7" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08297186441379978</v>
+        <v>0.08519040630418429</v>
       </c>
       <c r="M7" t="n">
-        <v>9.889334932905877</v>
+        <v>9.908347302790279</v>
       </c>
       <c r="N7" t="n">
-        <v>157.3511153105005</v>
+        <v>157.6558692900136</v>
       </c>
       <c r="O7" t="n">
-        <v>12.54396728752513</v>
+        <v>12.55610884350775</v>
       </c>
       <c r="P7" t="n">
-        <v>408.7028000201593</v>
+        <v>408.7752368761465</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25485,28 +25532,28 @@
         <v>0.0308</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3112049280143913</v>
+        <v>-0.3151729401846559</v>
       </c>
       <c r="J8" t="n">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K8" t="n">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04107053929706905</v>
+        <v>0.04220359504118898</v>
       </c>
       <c r="M8" t="n">
-        <v>8.610922318662684</v>
+        <v>8.614126710868726</v>
       </c>
       <c r="N8" t="n">
-        <v>125.1653349011752</v>
+        <v>125.0799613575267</v>
       </c>
       <c r="O8" t="n">
-        <v>11.18773144570316</v>
+        <v>11.18391529642132</v>
       </c>
       <c r="P8" t="n">
-        <v>401.8443257552779</v>
+        <v>401.8842476917483</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25563,28 +25610,28 @@
         <v>0.0416</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1055525435072589</v>
+        <v>-0.110343489070747</v>
       </c>
       <c r="J9" t="n">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K9" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005067568453504534</v>
+        <v>0.005547809059086917</v>
       </c>
       <c r="M9" t="n">
-        <v>8.875307422435526</v>
+        <v>8.88086708092656</v>
       </c>
       <c r="N9" t="n">
-        <v>123.6029871896179</v>
+        <v>123.6075542618129</v>
       </c>
       <c r="O9" t="n">
-        <v>11.11768803257305</v>
+        <v>11.11789342734553</v>
       </c>
       <c r="P9" t="n">
-        <v>401.0458037303076</v>
+        <v>401.0936744659303</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25641,28 +25688,28 @@
         <v>0.0356</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06689538781950403</v>
+        <v>0.06306255366186195</v>
       </c>
       <c r="J10" t="n">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K10" t="n">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002242652856059846</v>
+        <v>0.001999293735551078</v>
       </c>
       <c r="M10" t="n">
-        <v>8.227834264768108</v>
+        <v>8.228480433981204</v>
       </c>
       <c r="N10" t="n">
-        <v>112.3193070217295</v>
+        <v>112.2458906988104</v>
       </c>
       <c r="O10" t="n">
-        <v>10.59808034606879</v>
+        <v>10.59461611852031</v>
       </c>
       <c r="P10" t="n">
-        <v>402.8591033352113</v>
+        <v>402.8975758087339</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -25700,7 +25747,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K549"/>
+  <dimension ref="A1:K550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51682,11 +51729,7 @@
       <c r="C549" t="inlineStr"/>
       <c r="D549" t="inlineStr"/>
       <c r="E549" t="inlineStr"/>
-      <c r="F549" t="inlineStr">
-        <is>
-          <t>-36.53133812486176,174.71615345670813</t>
-        </is>
-      </c>
+      <c r="F549" t="inlineStr"/>
       <c r="G549" t="inlineStr">
         <is>
           <t>-36.53172137069391,174.71375333586465</t>
@@ -51701,6 +51744,63 @@
         </is>
       </c>
     </row>
+    <row r="550">
+      <c r="A550" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>-36.52818440059349,174.71501546205624</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>-36.52889182232386,174.71466625026966</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>-36.52961858855361,174.7143980383939</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>-36.53033662869,174.71420148429095</t>
+        </is>
+      </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>-36.53101363935997,174.71390582447793</t>
+        </is>
+      </c>
+      <c r="G550" t="inlineStr">
+        <is>
+          <t>-36.53172943624083,174.71381970492126</t>
+        </is>
+      </c>
+      <c r="H550" t="inlineStr">
+        <is>
+          <t>-36.532453831371726,174.71371723216595</t>
+        </is>
+      </c>
+      <c r="I550" t="inlineStr">
+        <is>
+          <t>-36.533147983050824,174.71356431133876</t>
+        </is>
+      </c>
+      <c r="J550" t="inlineStr">
+        <is>
+          <t>-36.53384524251112,174.71362008862818</t>
+        </is>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0131/nzd0131.xlsx
+++ b/data/nzd0131/nzd0131.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K550"/>
+  <dimension ref="A1:K551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19247,6 +19247,45 @@
         <v>395.6114285714286</v>
       </c>
       <c r="K550" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>416.4014285714285</v>
+      </c>
+      <c r="C551" t="n">
+        <v>402.82</v>
+      </c>
+      <c r="D551" t="n">
+        <v>397.68</v>
+      </c>
+      <c r="E551" t="n">
+        <v>379.44</v>
+      </c>
+      <c r="F551" t="n">
+        <v>393.63</v>
+      </c>
+      <c r="G551" t="n">
+        <v>391.67</v>
+      </c>
+      <c r="H551" t="n">
+        <v>383.9166666666667</v>
+      </c>
+      <c r="I551" t="n">
+        <v>391.11</v>
+      </c>
+      <c r="J551" t="n">
+        <v>396.6414285714285</v>
+      </c>
+      <c r="K551" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -19263,7 +19302,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B562"/>
+  <dimension ref="A1:B563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24891,6 +24930,16 @@
       </c>
       <c r="B562" t="n">
         <v>0.09</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>
@@ -25064,28 +25113,28 @@
         <v>0.0509</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3137506015764743</v>
+        <v>-0.3105138725366082</v>
       </c>
       <c r="J2" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K2" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L2" t="n">
-        <v>0.009166498512754973</v>
+        <v>0.009037396507113327</v>
       </c>
       <c r="M2" t="n">
-        <v>15.64095603691843</v>
+        <v>15.61140014614844</v>
       </c>
       <c r="N2" t="n">
-        <v>635.7010908436564</v>
+        <v>633.6266374627415</v>
       </c>
       <c r="O2" t="n">
-        <v>25.21311346985248</v>
+        <v>25.17194147185992</v>
       </c>
       <c r="P2" t="n">
-        <v>419.2513170317479</v>
+        <v>419.2199433194691</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25142,28 +25191,28 @@
         <v>0.0282</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.366686215512167</v>
+        <v>-0.3658027790606524</v>
       </c>
       <c r="J3" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K3" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02026170317636611</v>
+        <v>0.02028652705512024</v>
       </c>
       <c r="M3" t="n">
-        <v>15.16944678143207</v>
+        <v>15.12672146958725</v>
       </c>
       <c r="N3" t="n">
-        <v>388.5541871407897</v>
+        <v>387.3513914147825</v>
       </c>
       <c r="O3" t="n">
-        <v>19.71177787874015</v>
+        <v>19.68124466121954</v>
       </c>
       <c r="P3" t="n">
-        <v>410.7786967815227</v>
+        <v>410.7701706675692</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25220,28 +25269,28 @@
         <v>0.0209</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3752166113072929</v>
+        <v>-0.3737153571365614</v>
       </c>
       <c r="J4" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K4" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0201454917874514</v>
+        <v>0.02008754071420937</v>
       </c>
       <c r="M4" t="n">
-        <v>15.51264461782521</v>
+        <v>15.47965895471529</v>
       </c>
       <c r="N4" t="n">
-        <v>378.3389610428196</v>
+        <v>377.3596220029048</v>
       </c>
       <c r="O4" t="n">
-        <v>19.45093727928862</v>
+        <v>19.42574636926223</v>
       </c>
       <c r="P4" t="n">
-        <v>404.4020329704114</v>
+        <v>404.3865636804225</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25298,28 +25347,28 @@
         <v>0.0457</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3655420176141201</v>
+        <v>-0.3719445855660929</v>
       </c>
       <c r="J5" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K5" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02638305194760271</v>
+        <v>0.0273619214809101</v>
       </c>
       <c r="M5" t="n">
-        <v>13.16504108829335</v>
+        <v>13.16323009685563</v>
       </c>
       <c r="N5" t="n">
-        <v>291.1797479927062</v>
+        <v>290.9772660667213</v>
       </c>
       <c r="O5" t="n">
-        <v>17.06398980287747</v>
+        <v>17.05805575283189</v>
       </c>
       <c r="P5" t="n">
-        <v>403.5207665252889</v>
+        <v>403.5845221728296</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25376,28 +25425,28 @@
         <v>0.0259</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5663664699730797</v>
+        <v>-0.5699391118047881</v>
       </c>
       <c r="J6" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K6" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08765773389050691</v>
+        <v>0.0889496730656979</v>
       </c>
       <c r="M6" t="n">
-        <v>10.61730429320804</v>
+        <v>10.61530435639555</v>
       </c>
       <c r="N6" t="n">
-        <v>189.0886890963077</v>
+        <v>188.8327284852533</v>
       </c>
       <c r="O6" t="n">
-        <v>13.7509522977977</v>
+        <v>13.74164213204715</v>
       </c>
       <c r="P6" t="n">
-        <v>417.0098146416221</v>
+        <v>417.0458810153089</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25454,28 +25503,28 @@
         <v>0.0256</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5110497084309497</v>
+        <v>-0.512646172730389</v>
       </c>
       <c r="J7" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K7" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08519040630418429</v>
+        <v>0.08601350562260446</v>
       </c>
       <c r="M7" t="n">
-        <v>9.908347302790279</v>
+        <v>9.895513390922737</v>
       </c>
       <c r="N7" t="n">
-        <v>157.6558692900136</v>
+        <v>157.3398183699474</v>
       </c>
       <c r="O7" t="n">
-        <v>12.55610884350775</v>
+        <v>12.5435169856762</v>
       </c>
       <c r="P7" t="n">
-        <v>408.7752368761465</v>
+        <v>408.7912782657222</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25532,28 +25581,28 @@
         <v>0.0308</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3151729401846559</v>
+        <v>-0.319319692232775</v>
       </c>
       <c r="J8" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K8" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04220359504118898</v>
+        <v>0.04339356888883572</v>
       </c>
       <c r="M8" t="n">
-        <v>8.614126710868726</v>
+        <v>8.618437398171286</v>
       </c>
       <c r="N8" t="n">
-        <v>125.0799613575267</v>
+        <v>125.0135802151202</v>
       </c>
       <c r="O8" t="n">
-        <v>11.18391529642132</v>
+        <v>11.18094719668778</v>
       </c>
       <c r="P8" t="n">
-        <v>401.8842476917483</v>
+        <v>401.9260553236346</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25610,28 +25659,28 @@
         <v>0.0416</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.110343489070747</v>
+        <v>-0.1133662832044556</v>
       </c>
       <c r="J9" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K9" t="n">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005547809059086917</v>
+        <v>0.005875275838305161</v>
       </c>
       <c r="M9" t="n">
-        <v>8.88086708092656</v>
+        <v>8.876999652185241</v>
       </c>
       <c r="N9" t="n">
-        <v>123.6075542618129</v>
+        <v>123.4416501645111</v>
       </c>
       <c r="O9" t="n">
-        <v>11.11789342734553</v>
+        <v>11.11042979206975</v>
       </c>
       <c r="P9" t="n">
-        <v>401.0936744659303</v>
+        <v>401.1239439489328</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25688,28 +25737,28 @@
         <v>0.0356</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06306255366186195</v>
+        <v>0.05970297404373651</v>
       </c>
       <c r="J10" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K10" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001999293735551078</v>
+        <v>0.001798172284562138</v>
       </c>
       <c r="M10" t="n">
-        <v>8.228480433981204</v>
+        <v>8.226687711239304</v>
       </c>
       <c r="N10" t="n">
-        <v>112.2458906988104</v>
+        <v>112.1312510363924</v>
       </c>
       <c r="O10" t="n">
-        <v>10.59461611852031</v>
+        <v>10.58920445720038</v>
       </c>
       <c r="P10" t="n">
-        <v>402.8975758087339</v>
+        <v>402.9313721720523</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -25747,7 +25796,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K550"/>
+  <dimension ref="A1:K551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51801,6 +51850,63 @@
         </is>
       </c>
     </row>
+    <row r="551">
+      <c r="A551" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>-36.52817976466939,174.71491087233358</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>-36.5288933050954,174.71469970144517</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>-36.529639268711165,174.71457994459257</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>-36.53032985025505,174.7141653724021</t>
+        </is>
+      </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>-36.53104266800612,174.7141068860588</t>
+        </is>
+      </c>
+      <c r="G551" t="inlineStr">
+        <is>
+          <t>-36.53174725814893,174.71396635738958</t>
+        </is>
+      </c>
+      <c r="H551" t="inlineStr">
+        <is>
+          <t>-36.532452961427644,174.71371148800304</t>
+        </is>
+      </c>
+      <c r="I551" t="inlineStr">
+        <is>
+          <t>-36.53315216513967,174.71360924312765</t>
+        </is>
+      </c>
+      <c r="J551" t="inlineStr">
+        <is>
+          <t>-36.53384556035814,174.7136315848346</t>
+        </is>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0131/nzd0131.xlsx
+++ b/data/nzd0131/nzd0131.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K551"/>
+  <dimension ref="A1:K552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19286,6 +19286,41 @@
         <v>396.6414285714285</v>
       </c>
       <c r="K551" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr"/>
+      <c r="C552" t="inlineStr"/>
+      <c r="D552" t="n">
+        <v>376.52</v>
+      </c>
+      <c r="E552" t="n">
+        <v>395.82</v>
+      </c>
+      <c r="F552" t="n">
+        <v>389.2600000000001</v>
+      </c>
+      <c r="G552" t="n">
+        <v>383.77</v>
+      </c>
+      <c r="H552" t="n">
+        <v>384.9133333333333</v>
+      </c>
+      <c r="I552" t="n">
+        <v>393.45</v>
+      </c>
+      <c r="J552" t="n">
+        <v>400.0742857142857</v>
+      </c>
+      <c r="K552" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -19302,7 +19337,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B563"/>
+  <dimension ref="A1:B564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24940,6 +24975,16 @@
       </c>
       <c r="B563" t="n">
         <v>0.86</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>-0.71</v>
       </c>
     </row>
   </sheetData>
@@ -25796,7 +25841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K551"/>
+  <dimension ref="A1:K552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51907,6 +51952,55 @@
         </is>
       </c>
     </row>
+    <row r="552">
+      <c r="A552" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr"/>
+      <c r="C552" t="inlineStr"/>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>-36.529612667314055,174.71434595462884</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>-36.53036329314858,174.7143435389469</t>
+        </is>
+      </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>-36.53103573227004,174.71405884672933</t>
+        </is>
+      </c>
+      <c r="G552" t="inlineStr">
+        <is>
+          <t>-36.53173665628278,174.71387911683266</t>
+        </is>
+      </c>
+      <c r="H552" t="inlineStr">
+        <is>
+          <t>-36.53245461819989,174.71372242752358</t>
+        </is>
+      </c>
+      <c r="I552" t="inlineStr">
+        <is>
+          <t>-36.53315458144991,174.71363520371867</t>
+        </is>
+      </c>
+      <c r="J552" t="inlineStr">
+        <is>
+          <t>-36.53384661969327,174.71366990020806</t>
+        </is>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0131/nzd0131.xlsx
+++ b/data/nzd0131/nzd0131.xlsx
@@ -25161,7 +25161,7 @@
         <v>-0.3105138725366082</v>
       </c>
       <c r="J2" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K2" t="n">
         <v>293</v>
@@ -25239,7 +25239,7 @@
         <v>-0.3658027790606524</v>
       </c>
       <c r="J3" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K3" t="n">
         <v>321</v>
@@ -25314,28 +25314,28 @@
         <v>0.0209</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3737153571365614</v>
+        <v>-0.3826756438296786</v>
       </c>
       <c r="J4" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K4" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02008754071420937</v>
+        <v>0.02110098176999431</v>
       </c>
       <c r="M4" t="n">
-        <v>15.47965895471529</v>
+        <v>15.48559246648334</v>
       </c>
       <c r="N4" t="n">
-        <v>377.3596220029048</v>
+        <v>377.2236379497785</v>
       </c>
       <c r="O4" t="n">
-        <v>19.42574636926223</v>
+        <v>19.42224595534148</v>
       </c>
       <c r="P4" t="n">
-        <v>404.3865636804225</v>
+        <v>404.4792085799281</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25392,28 +25392,28 @@
         <v>0.0457</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3719445855660929</v>
+        <v>-0.3710968434198013</v>
       </c>
       <c r="J5" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K5" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0273619214809101</v>
+        <v>0.02736093111120241</v>
       </c>
       <c r="M5" t="n">
-        <v>13.16323009685563</v>
+        <v>13.13560826076869</v>
       </c>
       <c r="N5" t="n">
-        <v>290.9772660667213</v>
+        <v>290.2536517920681</v>
       </c>
       <c r="O5" t="n">
-        <v>17.05805575283189</v>
+        <v>17.03683221118492</v>
       </c>
       <c r="P5" t="n">
-        <v>403.5845221728296</v>
+        <v>403.5760483032379</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25470,28 +25470,28 @@
         <v>0.0259</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5699391118047881</v>
+        <v>-0.5752755184929358</v>
       </c>
       <c r="J6" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K6" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0889496730656979</v>
+        <v>0.09067016458432664</v>
       </c>
       <c r="M6" t="n">
-        <v>10.61530435639555</v>
+        <v>10.6238147894805</v>
       </c>
       <c r="N6" t="n">
-        <v>188.8327284852533</v>
+        <v>188.7820220046838</v>
       </c>
       <c r="O6" t="n">
-        <v>13.74164213204715</v>
+        <v>13.7397970146827</v>
       </c>
       <c r="P6" t="n">
-        <v>417.0458810153089</v>
+        <v>417.0999398332587</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25548,28 +25548,28 @@
         <v>0.0256</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.512646172730389</v>
+        <v>-0.5175185754344926</v>
       </c>
       <c r="J7" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K7" t="n">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08601350562260446</v>
+        <v>0.08772084823749871</v>
       </c>
       <c r="M7" t="n">
-        <v>9.895513390922737</v>
+        <v>9.901077359799427</v>
       </c>
       <c r="N7" t="n">
-        <v>157.3398183699474</v>
+        <v>157.2906184779116</v>
       </c>
       <c r="O7" t="n">
-        <v>12.5435169856762</v>
+        <v>12.54155566418742</v>
       </c>
       <c r="P7" t="n">
-        <v>408.7912782657222</v>
+        <v>408.8404005024925</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25626,28 +25626,28 @@
         <v>0.0308</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.319319692232775</v>
+        <v>-0.3230046990640132</v>
       </c>
       <c r="J8" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K8" t="n">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04339356888883572</v>
+        <v>0.04449525800150977</v>
       </c>
       <c r="M8" t="n">
-        <v>8.618437398171286</v>
+        <v>8.620036785891346</v>
       </c>
       <c r="N8" t="n">
-        <v>125.0135802151202</v>
+        <v>124.9038745296678</v>
       </c>
       <c r="O8" t="n">
-        <v>11.18094719668778</v>
+        <v>11.17604019900017</v>
       </c>
       <c r="P8" t="n">
-        <v>401.9260553236346</v>
+        <v>401.9633285501823</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25704,28 +25704,28 @@
         <v>0.0416</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1133662832044556</v>
+        <v>-0.1153702396054915</v>
       </c>
       <c r="J9" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K9" t="n">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005875275838305161</v>
+        <v>0.006108761417832009</v>
       </c>
       <c r="M9" t="n">
-        <v>8.876999652185241</v>
+        <v>8.867647850548401</v>
       </c>
       <c r="N9" t="n">
-        <v>123.4416501645111</v>
+        <v>123.2129235121102</v>
       </c>
       <c r="O9" t="n">
-        <v>11.11042979206975</v>
+        <v>11.10013168895352</v>
       </c>
       <c r="P9" t="n">
-        <v>401.1239439489328</v>
+        <v>401.1440791380625</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25782,28 +25782,28 @@
         <v>0.0356</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05970297404373651</v>
+        <v>0.05782580356247467</v>
       </c>
       <c r="J10" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K10" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001798172284562138</v>
+        <v>0.001694064102723769</v>
       </c>
       <c r="M10" t="n">
-        <v>8.226687711239304</v>
+        <v>8.2173768653912</v>
       </c>
       <c r="N10" t="n">
-        <v>112.1312510363924</v>
+        <v>111.9203743090804</v>
       </c>
       <c r="O10" t="n">
-        <v>10.58920445720038</v>
+        <v>10.57924261509681</v>
       </c>
       <c r="P10" t="n">
-        <v>402.9313721720523</v>
+        <v>402.9503205076584</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">

--- a/data/nzd0131/nzd0131.xlsx
+++ b/data/nzd0131/nzd0131.xlsx
@@ -25149,13 +25149,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.035</v>
+        <v>0.015</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0269</v>
+        <v>0.0145</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0509</v>
+        <v>0.0155</v>
       </c>
       <c r="I2" t="n">
         <v>-0.3104686258084315</v>
@@ -25227,13 +25227,13 @@
         <v>0.1252699335295036</v>
       </c>
       <c r="F3" t="n">
-        <v>0.025</v>
+        <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0194</v>
+        <v>0.01</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0282</v>
+        <v>0.015</v>
       </c>
       <c r="I3" t="n">
         <v>-0.3658027790606524</v>
@@ -25308,10 +25308,10 @@
         <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0184</v>
+        <v>0.015</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0209</v>
+        <v>0.0204</v>
       </c>
       <c r="I4" t="n">
         <v>-0.3826756438296786</v>
@@ -25383,13 +25383,13 @@
         <v>0.3752883934176235</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0344</v>
+        <v>0.0198</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0457</v>
+        <v>0.0216</v>
       </c>
       <c r="I5" t="n">
         <v>-0.3710968434198013</v>
@@ -25464,10 +25464,10 @@
         <v>0.025</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0239</v>
+        <v>0.0244</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0259</v>
+        <v>0.0257</v>
       </c>
       <c r="I6" t="n">
         <v>-0.5752755184929359</v>
@@ -25542,10 +25542,10 @@
         <v>0.025</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0249</v>
+        <v>0.0246</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0256</v>
+        <v>0.0266</v>
       </c>
       <c r="I7" t="n">
         <v>-0.5175185754344928</v>
@@ -25620,10 +25620,10 @@
         <v>0.03</v>
       </c>
       <c r="G8" t="n">
-        <v>0.029</v>
+        <v>0.0297</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0308</v>
+        <v>0.0305</v>
       </c>
       <c r="I8" t="n">
         <v>-0.3230049813638525</v>
@@ -25695,13 +25695,13 @@
         <v>0.875999137214597</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0347</v>
+        <v>0.0339</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0416</v>
+        <v>0.0354</v>
       </c>
       <c r="I9" t="n">
         <v>-0.1153702396054915</v>
@@ -25776,10 +25776,10 @@
         <v>0.035</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0316</v>
+        <v>0.034</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0356</v>
+        <v>0.0353</v>
       </c>
       <c r="I10" t="n">
         <v>0.0578676306398555</v>
